--- a/working/test_friday.xlsx
+++ b/working/test_friday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibulmnie/Documents/GitHub/ML20222.PredictionBitcoin/working/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{681363A0-EEC1-6A4A-8E0D-2FE02085652A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB3736D-CA91-A24A-A762-7531025AC421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{0C0597D9-6702-C44D-AB4D-775C98DFD5A2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>06/04/2023</t>
   </si>
@@ -216,6 +216,78 @@
   </si>
   <si>
     <t>923585.5246616338</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>BTC_close</t>
+  </si>
+  <si>
+    <t>BTC_open</t>
+  </si>
+  <si>
+    <t>BTC_high</t>
+  </si>
+  <si>
+    <t>BTC_low</t>
+  </si>
+  <si>
+    <t>BTC_volume</t>
+  </si>
+  <si>
+    <t>Active_Addr_Cnt</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Mean_Block_Size(in_bytes)</t>
+  </si>
+  <si>
+    <t>Sum_Block_Weight</t>
+  </si>
+  <si>
+    <t>Total_Fees(USD)</t>
+  </si>
+  <si>
+    <t>Mean_Hashrate</t>
+  </si>
+  <si>
+    <t>Xfer_Cnt</t>
+  </si>
+  <si>
+    <t>Mean_Tx_size(native_units)</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>LTC</t>
+  </si>
+  <si>
+    <t>DOGE</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>COOPER</t>
+  </si>
+  <si>
+    <t>S&amp;P500</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>JP225</t>
   </si>
 </sst>
 </file>
@@ -568,1380 +640,1454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58EAB82-8BF6-2841-A126-8C6BBFDE7A5E}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>28036.7</v>
-      </c>
-      <c r="C1">
-        <v>28173.5</v>
-      </c>
-      <c r="D1">
-        <v>28173.5</v>
-      </c>
-      <c r="E1">
-        <v>27734.5</v>
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>1022873</v>
-      </c>
-      <c r="H1">
-        <v>47221982255221</v>
-      </c>
-      <c r="I1">
-        <v>1971266.6812499999</v>
-      </c>
-      <c r="J1">
-        <v>638984328</v>
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1">
-        <v>375586794.88083017</v>
-      </c>
-      <c r="M1">
-        <v>941395</v>
-      </c>
-      <c r="N1">
-        <v>0.46913965458099999</v>
-      </c>
-      <c r="O1">
-        <v>1872.35</v>
-      </c>
-      <c r="P1">
-        <v>90.97</v>
-      </c>
-      <c r="Q1">
-        <v>8.541E-2</v>
-      </c>
-      <c r="R1">
-        <v>0.50283999999999995</v>
-      </c>
-      <c r="S1">
-        <v>2011.9</v>
-      </c>
-      <c r="T1">
-        <v>25.093</v>
-      </c>
-      <c r="U1">
-        <v>8800</v>
-      </c>
-      <c r="V1">
-        <v>4105.0200000000004</v>
-      </c>
-      <c r="W1">
-        <v>33485.35</v>
-      </c>
-      <c r="X1">
-        <v>27472.63</v>
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
+        <v>28036.7</v>
+      </c>
+      <c r="C2">
         <v>28173.5</v>
       </c>
-      <c r="C2">
-        <v>28164.400000000001</v>
-      </c>
       <c r="D2">
-        <v>28744.400000000001</v>
+        <v>28173.5</v>
       </c>
       <c r="E2">
-        <v>27823.5</v>
+        <v>27734.5</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>964688</v>
+        <v>1022873</v>
       </c>
       <c r="H2">
-        <v>46843400286277</v>
+        <v>47221982255221</v>
       </c>
       <c r="I2">
-        <v>1823133.5467625898</v>
+        <v>1971266.6812499999</v>
       </c>
       <c r="J2">
-        <v>551198167</v>
+        <v>638984328</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>323675130.89047867</v>
+        <v>375586794.88083017</v>
       </c>
       <c r="M2">
-        <v>916214</v>
+        <v>941395</v>
       </c>
       <c r="N2">
-        <v>0.58660006481299998</v>
+        <v>0.46913965458099999</v>
       </c>
       <c r="O2">
-        <v>1908.96</v>
+        <v>1872.35</v>
       </c>
       <c r="P2">
-        <v>92.67</v>
+        <v>90.97</v>
       </c>
       <c r="Q2">
-        <v>9.2715000000000006E-2</v>
+        <v>8.541E-2</v>
       </c>
       <c r="R2">
-        <v>0.50560000000000005</v>
+        <v>0.50283999999999995</v>
       </c>
       <c r="S2">
-        <v>2020.9</v>
+        <v>2011.9</v>
       </c>
       <c r="T2">
-        <v>25.036999999999999</v>
+        <v>25.093</v>
       </c>
       <c r="U2">
-        <v>8782</v>
+        <v>8800</v>
       </c>
       <c r="V2">
-        <v>4090.38</v>
+        <v>4105.0200000000004</v>
       </c>
       <c r="W2">
-        <v>33482.589999999997</v>
+        <v>33485.35</v>
       </c>
       <c r="X2">
-        <v>27813.26</v>
+        <v>27472.63</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3">
+        <v>28173.5</v>
+      </c>
+      <c r="C3">
         <v>28164.400000000001</v>
       </c>
-      <c r="C3">
-        <v>27802.2</v>
-      </c>
       <c r="D3">
-        <v>28429.1</v>
+        <v>28744.400000000001</v>
       </c>
       <c r="E3">
-        <v>27668.9</v>
+        <v>27823.5</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>1108155</v>
+        <v>964688</v>
       </c>
       <c r="H3">
         <v>46843400286277</v>
       </c>
       <c r="I3">
-        <v>1784725.6358024692</v>
+        <v>1823133.5467625898</v>
       </c>
       <c r="J3">
-        <v>646966825</v>
+        <v>551198167</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>377232885.49311525</v>
+        <v>323675130.89047867</v>
       </c>
       <c r="M3">
-        <v>1055774</v>
+        <v>916214</v>
       </c>
       <c r="N3">
-        <v>0.50038887255700004</v>
+        <v>0.58660006481299998</v>
       </c>
       <c r="O3">
-        <v>1870.52</v>
+        <v>1908.96</v>
       </c>
       <c r="P3">
-        <v>92.53</v>
+        <v>92.67</v>
       </c>
       <c r="Q3">
-        <v>9.5162999999999998E-2</v>
+        <v>9.2715000000000006E-2</v>
       </c>
       <c r="R3">
-        <v>0.50270000000000004</v>
+        <v>0.50560000000000005</v>
       </c>
       <c r="S3">
-        <v>2022.2</v>
+        <v>2020.9</v>
       </c>
       <c r="T3">
-        <v>25.100999999999999</v>
+        <v>25.036999999999999</v>
       </c>
       <c r="U3">
-        <v>8751</v>
+        <v>8782</v>
       </c>
       <c r="V3">
-        <v>4100.6000000000004</v>
+        <v>4090.38</v>
       </c>
       <c r="W3">
-        <v>33403.040000000001</v>
+        <v>33482.589999999997</v>
       </c>
       <c r="X3">
-        <v>28287.42</v>
+        <v>27813.26</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>27802.1</v>
+        <v>28164.400000000001</v>
       </c>
       <c r="C4">
-        <v>28194.7</v>
+        <v>27802.2</v>
       </c>
       <c r="D4">
-        <v>28458.400000000001</v>
+        <v>28429.1</v>
       </c>
       <c r="E4">
-        <v>27256.9</v>
+        <v>27668.9</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>985157</v>
+        <v>1108155</v>
       </c>
       <c r="H4">
         <v>46843400286277</v>
       </c>
       <c r="I4">
-        <v>1731937.4427480916</v>
+        <v>1784725.6358024692</v>
       </c>
       <c r="J4">
-        <v>523167342</v>
+        <v>646966825</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>305046344.93138009</v>
+        <v>377232885.49311525</v>
       </c>
       <c r="M4">
-        <v>872351</v>
+        <v>1055774</v>
       </c>
       <c r="N4">
-        <v>0.41586929018399998</v>
+        <v>0.50038887255700004</v>
       </c>
       <c r="O4">
-        <v>1810.77</v>
+        <v>1870.52</v>
       </c>
       <c r="P4">
-        <v>92.98</v>
+        <v>92.53</v>
       </c>
       <c r="Q4">
-        <v>9.604E-2</v>
+        <v>9.5162999999999998E-2</v>
       </c>
       <c r="R4">
-        <v>0.49569999999999997</v>
+        <v>0.50270000000000004</v>
       </c>
       <c r="S4">
-        <v>1983.9</v>
+        <v>2022.2</v>
       </c>
       <c r="T4">
-        <v>24.021000000000001</v>
+        <v>25.100999999999999</v>
       </c>
       <c r="U4">
-        <v>8917</v>
+        <v>8751</v>
       </c>
       <c r="V4">
-        <v>4124.51</v>
+        <v>4100.6000000000004</v>
       </c>
       <c r="W4">
-        <v>33600.92</v>
+        <v>33403.040000000001</v>
       </c>
       <c r="X4">
-        <v>28188.15</v>
+        <v>28287.42</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>28198.3</v>
+        <v>27802.1</v>
       </c>
       <c r="C5">
-        <v>28456.1</v>
+        <v>28194.7</v>
       </c>
       <c r="D5">
-        <v>28522.799999999999</v>
+        <v>28458.400000000001</v>
       </c>
       <c r="E5">
-        <v>27871.7</v>
+        <v>27256.9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>1012005</v>
+        <v>985157</v>
       </c>
       <c r="H5">
         <v>46843400286277</v>
       </c>
       <c r="I5">
-        <v>1886886.4228187921</v>
+        <v>1731937.4427480916</v>
       </c>
       <c r="J5">
-        <v>595052757</v>
+        <v>523167342</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5">
-        <v>346961109.98617065</v>
+        <v>305046344.93138009</v>
       </c>
       <c r="M5">
-        <v>861466</v>
+        <v>872351</v>
       </c>
       <c r="N5">
-        <v>0.30335794565700003</v>
+        <v>0.41586929018399998</v>
       </c>
       <c r="O5">
-        <v>1795.01</v>
+        <v>1810.77</v>
       </c>
       <c r="P5">
-        <v>92.81</v>
+        <v>92.98</v>
       </c>
       <c r="Q5">
-        <v>7.9022999999999996E-2</v>
+        <v>9.604E-2</v>
       </c>
       <c r="R5">
-        <v>0.51803999999999994</v>
+        <v>0.49569999999999997</v>
+      </c>
+      <c r="S5">
+        <v>1983.9</v>
+      </c>
+      <c r="T5">
+        <v>24.021000000000001</v>
+      </c>
+      <c r="U5">
+        <v>8917</v>
+      </c>
+      <c r="V5">
+        <v>4124.51</v>
+      </c>
+      <c r="W5">
+        <v>33600.92</v>
+      </c>
+      <c r="X5">
+        <v>28188.15</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6">
+        <v>28198.3</v>
+      </c>
+      <c r="C6">
         <v>28456.1</v>
       </c>
-      <c r="C6">
-        <v>28473.7</v>
-      </c>
       <c r="D6">
-        <v>28795.1</v>
+        <v>28522.799999999999</v>
       </c>
       <c r="E6">
-        <v>28285.599999999999</v>
+        <v>27871.7</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>1038858</v>
+        <v>1012005</v>
       </c>
       <c r="H6">
         <v>46843400286277</v>
       </c>
       <c r="I6">
-        <v>1810604.5</v>
+        <v>1886886.4228187921</v>
       </c>
       <c r="J6">
-        <v>559143995</v>
+        <v>595052757</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L6">
-        <v>326003727.4587754</v>
+        <v>346961109.98617065</v>
       </c>
       <c r="M6">
-        <v>876720</v>
+        <v>861466</v>
       </c>
       <c r="N6">
-        <v>0.34339208700099999</v>
+        <v>0.30335794565700003</v>
       </c>
       <c r="O6">
-        <v>1820.78</v>
+        <v>1795.01</v>
       </c>
       <c r="P6">
-        <v>92.56</v>
+        <v>92.81</v>
       </c>
       <c r="Q6">
-        <v>8.1822000000000006E-2</v>
+        <v>7.9022999999999996E-2</v>
       </c>
       <c r="R6">
-        <v>0.50949</v>
+        <v>0.51803999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7">
+        <v>28456.1</v>
+      </c>
+      <c r="C7">
         <v>28473.7</v>
       </c>
-      <c r="C7">
-        <v>28029.3</v>
-      </c>
       <c r="D7">
-        <v>28646.3</v>
+        <v>28795.1</v>
       </c>
       <c r="E7">
-        <v>27587.5</v>
+        <v>28285.599999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>1043754</v>
+        <v>1038858</v>
       </c>
       <c r="H7">
         <v>46843400286277</v>
       </c>
       <c r="I7">
-        <v>1790523.0921985817</v>
+        <v>1810604.5</v>
       </c>
       <c r="J7">
-        <v>563128825</v>
+        <v>559143995</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L7">
-        <v>328332327.38025331</v>
+        <v>326003727.4587754</v>
       </c>
       <c r="M7">
-        <v>907374</v>
+        <v>876720</v>
       </c>
       <c r="N7">
-        <v>0.49563593926499999</v>
+        <v>0.34339208700099999</v>
       </c>
       <c r="O7">
-        <v>1821.62</v>
+        <v>1820.78</v>
       </c>
       <c r="P7">
-        <v>89.57</v>
+        <v>92.56</v>
       </c>
       <c r="Q7">
-        <v>7.6983999999999997E-2</v>
+        <v>8.1822000000000006E-2</v>
       </c>
       <c r="R7">
-        <v>0.53798999999999997</v>
-      </c>
-      <c r="S7">
-        <v>1969</v>
-      </c>
-      <c r="T7">
-        <v>24.155999999999999</v>
-      </c>
-      <c r="U7">
-        <v>8993</v>
-      </c>
-      <c r="V7">
-        <v>4109.3100000000004</v>
-      </c>
-      <c r="W7">
-        <v>33273.1</v>
-      </c>
-      <c r="X7">
-        <v>28041.48</v>
+        <v>0.50949</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>28029.5</v>
+        <v>28473.7</v>
       </c>
       <c r="C8">
-        <v>28350.3</v>
+        <v>28029.3</v>
       </c>
       <c r="D8">
-        <v>29160.400000000001</v>
+        <v>28646.3</v>
       </c>
       <c r="E8">
-        <v>27716.7</v>
+        <v>27587.5</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>1021839</v>
+        <v>1043754</v>
       </c>
       <c r="H8">
         <v>46843400286277</v>
       </c>
       <c r="I8">
-        <v>2050557.2580645161</v>
+        <v>1790523.0921985817</v>
       </c>
       <c r="J8">
-        <v>615057979</v>
+        <v>563128825</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L8">
-        <v>360932699.45549458</v>
+        <v>328332327.38025331</v>
       </c>
       <c r="M8">
-        <v>903224</v>
+        <v>907374</v>
       </c>
       <c r="N8">
-        <v>0.50792841221700002</v>
+        <v>0.49563593926499999</v>
       </c>
       <c r="O8">
-        <v>1793.59</v>
+        <v>1821.62</v>
       </c>
       <c r="P8">
-        <v>89.07</v>
+        <v>89.57</v>
       </c>
       <c r="Q8">
-        <v>7.4226E-2</v>
+        <v>7.6983999999999997E-2</v>
       </c>
       <c r="R8">
-        <v>0.53217000000000003</v>
+        <v>0.53798999999999997</v>
       </c>
       <c r="S8">
-        <v>1980.3</v>
+        <v>1969</v>
       </c>
       <c r="T8">
-        <v>23.989000000000001</v>
+        <v>24.155999999999999</v>
       </c>
       <c r="U8">
-        <v>9001</v>
+        <v>8993</v>
       </c>
       <c r="V8">
-        <v>4050.83</v>
+        <v>4109.3100000000004</v>
       </c>
       <c r="W8">
-        <v>32859.56</v>
+        <v>33273.1</v>
       </c>
       <c r="X8">
-        <v>27782.93</v>
+        <v>28041.48</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>28350.400000000001</v>
+        <v>28029.5</v>
       </c>
       <c r="C9">
-        <v>27262.9</v>
+        <v>28350.3</v>
       </c>
       <c r="D9">
-        <v>28627.4</v>
+        <v>29160.400000000001</v>
       </c>
       <c r="E9">
-        <v>27249.8</v>
+        <v>27716.7</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9">
-        <v>977852</v>
+        <v>1021839</v>
       </c>
       <c r="H9">
         <v>46843400286277</v>
       </c>
       <c r="I9">
-        <v>2016251.7619047619</v>
+        <v>2050557.2580645161</v>
       </c>
       <c r="J9">
-        <v>583059718</v>
+        <v>615057979</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L9">
-        <v>342303913.49639601</v>
+        <v>360932699.45549458</v>
       </c>
       <c r="M9">
-        <v>862563</v>
+        <v>903224</v>
       </c>
       <c r="N9">
-        <v>0.39686438731200002</v>
+        <v>0.50792841221700002</v>
       </c>
       <c r="O9">
-        <v>1793.27</v>
+        <v>1793.59</v>
       </c>
       <c r="P9">
-        <v>91.3</v>
+        <v>89.07</v>
       </c>
       <c r="Q9">
-        <v>7.5617000000000004E-2</v>
+        <v>7.4226E-2</v>
       </c>
       <c r="R9">
-        <v>0.54274</v>
+        <v>0.53217000000000003</v>
       </c>
       <c r="S9">
-        <v>1966.9</v>
+        <v>1980.3</v>
       </c>
       <c r="T9">
-        <v>23.390999999999998</v>
+        <v>23.989000000000001</v>
       </c>
       <c r="U9">
-        <v>9002.5</v>
+        <v>9001</v>
       </c>
       <c r="V9">
-        <v>4027.81</v>
+        <v>4050.83</v>
       </c>
       <c r="W9">
-        <v>32717.96</v>
+        <v>32859.56</v>
       </c>
       <c r="X9">
-        <v>27883.78</v>
+        <v>27782.93</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>27262.2</v>
+        <v>28350.400000000001</v>
       </c>
       <c r="C10">
-        <v>27127.8</v>
+        <v>27262.9</v>
       </c>
       <c r="D10">
-        <v>27465</v>
+        <v>28627.4</v>
       </c>
       <c r="E10">
-        <v>26665.599999999999</v>
+        <v>27249.8</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>982699</v>
+        <v>977852</v>
       </c>
       <c r="H10">
         <v>46843400286277</v>
       </c>
       <c r="I10">
-        <v>1822666.3059701493</v>
+        <v>2016251.7619047619</v>
       </c>
       <c r="J10">
-        <v>535081807</v>
+        <v>583059718</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L10">
-        <v>312032141.34263265</v>
+        <v>342303913.49639601</v>
       </c>
       <c r="M10">
-        <v>820463</v>
+        <v>862563</v>
       </c>
       <c r="N10">
-        <v>0.43809728904700002</v>
+        <v>0.39686438731200002</v>
       </c>
       <c r="O10">
-        <v>1772.63</v>
+        <v>1793.27</v>
       </c>
       <c r="P10">
-        <v>89.08</v>
+        <v>91.3</v>
       </c>
       <c r="Q10">
-        <v>7.3760000000000006E-2</v>
+        <v>7.5617000000000004E-2</v>
       </c>
       <c r="R10">
-        <v>0.51443000000000005</v>
+        <v>0.54274</v>
       </c>
       <c r="S10">
-        <v>1973.5</v>
+        <v>1966.9</v>
       </c>
       <c r="T10">
-        <v>23.344999999999999</v>
+        <v>23.390999999999998</v>
       </c>
       <c r="U10">
-        <v>8978</v>
+        <v>9002.5</v>
       </c>
       <c r="V10">
-        <v>3971.27</v>
+        <v>4027.81</v>
       </c>
       <c r="W10">
-        <v>32394.65</v>
+        <v>32717.96</v>
       </c>
       <c r="X10">
-        <v>27518.25</v>
+        <v>27883.78</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>27129.8</v>
+        <v>27262.2</v>
       </c>
       <c r="C11">
-        <v>27974.799999999999</v>
+        <v>27127.8</v>
       </c>
       <c r="D11">
-        <v>28023.3</v>
+        <v>27465</v>
       </c>
       <c r="E11">
-        <v>26611.5</v>
+        <v>26665.599999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>1057595</v>
+        <v>982699</v>
       </c>
       <c r="H11">
         <v>46843400286277</v>
       </c>
       <c r="I11">
-        <v>1871969.3175675676</v>
+        <v>1822666.3059701493</v>
       </c>
       <c r="J11">
-        <v>591091024</v>
+        <v>535081807</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L11">
-        <v>344632513.41787398</v>
+        <v>312032141.34263265</v>
       </c>
       <c r="M11">
-        <v>814057</v>
+        <v>820463</v>
       </c>
       <c r="N11">
-        <v>0.427244154298</v>
+        <v>0.43809728904700002</v>
       </c>
       <c r="O11">
-        <v>1714.65</v>
+        <v>1772.63</v>
       </c>
       <c r="P11">
-        <v>89.22</v>
+        <v>89.08</v>
       </c>
       <c r="Q11">
-        <v>7.2862999999999997E-2</v>
+        <v>7.3760000000000006E-2</v>
       </c>
       <c r="R11">
-        <v>0.4793</v>
+        <v>0.51443000000000005</v>
       </c>
       <c r="S11">
-        <v>1971.5</v>
+        <v>1973.5</v>
       </c>
       <c r="T11">
-        <v>23.074999999999999</v>
+        <v>23.344999999999999</v>
       </c>
       <c r="U11">
-        <v>8964</v>
+        <v>8978</v>
       </c>
       <c r="V11">
-        <v>3977.53</v>
+        <v>3971.27</v>
       </c>
       <c r="W11">
-        <v>32432.61</v>
+        <v>32394.65</v>
       </c>
       <c r="X11">
-        <v>27476.87</v>
+        <v>27518.25</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>27973.5</v>
+        <v>27129.8</v>
       </c>
       <c r="C12">
-        <v>27474.9</v>
+        <v>27974.799999999999</v>
       </c>
       <c r="D12">
-        <v>28153.7</v>
+        <v>28023.3</v>
       </c>
       <c r="E12">
-        <v>27429.1</v>
+        <v>26611.5</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>851151</v>
+        <v>1057595</v>
       </c>
       <c r="H12">
         <v>46843400286277</v>
       </c>
       <c r="I12">
-        <v>2254034.097222222</v>
+        <v>1871969.3175675676</v>
       </c>
       <c r="J12">
-        <v>575115533</v>
+        <v>591091024</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L12">
-        <v>335318120.43832469</v>
+        <v>344632513.41787398</v>
       </c>
       <c r="M12">
-        <v>728626</v>
+        <v>814057</v>
       </c>
       <c r="N12">
-        <v>0.35197678992699999</v>
+        <v>0.427244154298</v>
       </c>
       <c r="O12">
-        <v>1774.06</v>
+        <v>1714.65</v>
       </c>
       <c r="P12">
-        <v>93.4</v>
+        <v>89.22</v>
       </c>
       <c r="Q12">
-        <v>7.4376999999999999E-2</v>
+        <v>7.2862999999999997E-2</v>
       </c>
       <c r="R12">
-        <v>0.44796999999999998</v>
+        <v>0.4793</v>
+      </c>
+      <c r="S12">
+        <v>1971.5</v>
+      </c>
+      <c r="T12">
+        <v>23.074999999999999</v>
+      </c>
+      <c r="U12">
+        <v>8964</v>
+      </c>
+      <c r="V12">
+        <v>3977.53</v>
+      </c>
+      <c r="W12">
+        <v>32432.61</v>
+      </c>
+      <c r="X12">
+        <v>27476.87</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>27475.599999999999</v>
+        <v>27973.5</v>
       </c>
       <c r="C13">
-        <v>27462.2</v>
+        <v>27474.9</v>
       </c>
       <c r="D13">
-        <v>27761.9</v>
+        <v>28153.7</v>
       </c>
       <c r="E13">
-        <v>27176.7</v>
+        <v>27429.1</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>898042</v>
+        <v>851151</v>
       </c>
       <c r="H13">
         <v>46843400286277</v>
       </c>
       <c r="I13">
-        <v>2093686.9724137932</v>
+        <v>2254034.097222222</v>
       </c>
       <c r="J13">
-        <v>579136921</v>
+        <v>575115533</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L13">
-        <v>337646717.00662136</v>
+        <v>335318120.43832469</v>
       </c>
       <c r="M13">
-        <v>788901</v>
+        <v>728626</v>
       </c>
       <c r="N13">
-        <v>0.389016521349</v>
+        <v>0.35197678992699999</v>
       </c>
       <c r="O13">
-        <v>1742.34</v>
+        <v>1774.06</v>
       </c>
       <c r="P13">
-        <v>91.52</v>
+        <v>93.4</v>
       </c>
       <c r="Q13">
-        <v>7.4054999999999996E-2</v>
+        <v>7.4376999999999999E-2</v>
       </c>
       <c r="R13">
-        <v>0.44320999999999999</v>
+        <v>0.44796999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14">
+        <v>27475.599999999999</v>
+      </c>
+      <c r="C14">
         <v>27462.2</v>
       </c>
-      <c r="C14">
-        <v>28306.9</v>
-      </c>
       <c r="D14">
-        <v>28374.5</v>
+        <v>27761.9</v>
       </c>
       <c r="E14">
-        <v>27026.5</v>
+        <v>27176.7</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>893101</v>
+        <v>898042</v>
       </c>
       <c r="H14">
         <v>46843400286277</v>
       </c>
       <c r="I14">
-        <v>2420919.1296296297</v>
+        <v>2093686.9724137932</v>
       </c>
       <c r="J14">
-        <v>647000055</v>
+        <v>579136921</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L14">
-        <v>377232885.49311525</v>
+        <v>337646717.00662136</v>
       </c>
       <c r="M14">
-        <v>840147</v>
+        <v>788901</v>
       </c>
       <c r="N14">
-        <v>0.63306796319799996</v>
+        <v>0.389016521349</v>
       </c>
       <c r="O14">
-        <v>1749.26</v>
+        <v>1742.34</v>
       </c>
       <c r="P14">
-        <v>93.6</v>
+        <v>91.52</v>
       </c>
       <c r="Q14">
-        <v>7.4573E-2</v>
+        <v>7.4054999999999996E-2</v>
       </c>
       <c r="R14">
-        <v>0.42557</v>
-      </c>
-      <c r="S14">
-        <v>2001.7</v>
-      </c>
-      <c r="T14">
-        <v>23.247</v>
-      </c>
-      <c r="U14">
-        <v>8921.5</v>
-      </c>
-      <c r="V14">
-        <v>3970.99</v>
-      </c>
-      <c r="W14">
-        <v>32238.15</v>
-      </c>
-      <c r="X14">
-        <v>27385.25</v>
+        <v>0.44320999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15">
-        <v>28310.7</v>
+        <v>27462.2</v>
       </c>
       <c r="C15">
-        <v>27262.799999999999</v>
+        <v>28306.9</v>
       </c>
       <c r="D15">
-        <v>28734.1</v>
+        <v>28374.5</v>
       </c>
       <c r="E15">
-        <v>27144.6</v>
+        <v>27026.5</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>902932</v>
+        <v>893101</v>
       </c>
       <c r="H15">
-        <v>43857506515425</v>
+        <v>46843400286277</v>
       </c>
       <c r="I15">
-        <v>2506304.6284153005</v>
+        <v>2420919.1296296297</v>
       </c>
       <c r="J15">
-        <v>718901221</v>
+        <v>647000055</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L15">
-        <v>398970829.72571325</v>
+        <v>377232885.49311525</v>
       </c>
       <c r="M15">
-        <v>808903</v>
+        <v>840147</v>
       </c>
       <c r="N15">
-        <v>0.58862221101699996</v>
+        <v>0.63306796319799996</v>
       </c>
       <c r="O15">
-        <v>1814.08</v>
+        <v>1749.26</v>
       </c>
       <c r="P15">
-        <v>93.68</v>
+        <v>93.6</v>
       </c>
       <c r="Q15">
-        <v>7.7386999999999997E-2</v>
+        <v>7.4573E-2</v>
       </c>
       <c r="R15">
-        <v>0.44397999999999999</v>
+        <v>0.42557</v>
       </c>
       <c r="S15">
-        <v>2013.3</v>
+        <v>2001.7</v>
       </c>
       <c r="T15">
-        <v>23.143999999999998</v>
+        <v>23.247</v>
       </c>
       <c r="U15">
-        <v>9031</v>
+        <v>8921.5</v>
       </c>
       <c r="V15">
-        <v>3948.72</v>
+        <v>3970.99</v>
       </c>
       <c r="W15">
-        <v>32103.77</v>
+        <v>32238.15</v>
       </c>
       <c r="X15">
-        <v>27419.61</v>
+        <v>27385.25</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16">
-        <v>27261.7</v>
+        <v>28310.7</v>
       </c>
       <c r="C16">
-        <v>28114.2</v>
+        <v>27262.799999999999</v>
       </c>
       <c r="D16">
-        <v>28760.3</v>
+        <v>28734.1</v>
       </c>
       <c r="E16">
-        <v>26668.7</v>
+        <v>27144.6</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>940276</v>
+        <v>902932</v>
       </c>
       <c r="H16">
-        <v>43551722213590</v>
+        <v>43857506515425</v>
       </c>
       <c r="I16">
-        <v>2180559.2327044024</v>
+        <v>2506304.6284153005</v>
       </c>
       <c r="J16">
-        <v>627034810</v>
+        <v>718901221</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L16">
-        <v>344229889.83668143</v>
+        <v>398970829.72571325</v>
       </c>
       <c r="M16">
-        <v>819958</v>
+        <v>808903</v>
       </c>
       <c r="N16">
-        <v>0.65755019737200004</v>
+        <v>0.58862221101699996</v>
       </c>
       <c r="O16">
-        <v>1734.48</v>
+        <v>1814.08</v>
       </c>
       <c r="P16">
-        <v>87.25</v>
+        <v>93.68</v>
       </c>
       <c r="Q16">
-        <v>7.3851E-2</v>
+        <v>7.7386999999999997E-2</v>
       </c>
       <c r="R16">
-        <v>0.42111999999999999</v>
+        <v>0.44397999999999999</v>
       </c>
       <c r="S16">
-        <v>1966.6</v>
+        <v>2013.3</v>
       </c>
       <c r="T16">
-        <v>22.675000000000001</v>
+        <v>23.143999999999998</v>
       </c>
       <c r="U16">
-        <v>8888.5</v>
+        <v>9031</v>
       </c>
       <c r="V16">
-        <v>3936.97</v>
+        <v>3948.72</v>
       </c>
       <c r="W16">
-        <v>32028.9</v>
+        <v>32103.77</v>
       </c>
       <c r="X16">
-        <v>27466.61</v>
+        <v>27419.61</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>28114</v>
+        <v>27261.7</v>
       </c>
       <c r="C17">
-        <v>27719.8</v>
+        <v>28114.2</v>
       </c>
       <c r="D17">
-        <v>28437.8</v>
+        <v>28760.3</v>
       </c>
       <c r="E17">
-        <v>27350.6</v>
+        <v>26668.7</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G17">
-        <v>990544</v>
+        <v>940276</v>
       </c>
       <c r="H17">
         <v>43551722213590</v>
       </c>
       <c r="I17">
-        <v>1963597.3793103448</v>
+        <v>2180559.2327044024</v>
       </c>
       <c r="J17">
-        <v>579083051</v>
+        <v>627034810</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L17">
-        <v>313920337.45490515</v>
+        <v>344229889.83668143</v>
       </c>
       <c r="M17">
-        <v>880525</v>
+        <v>819958</v>
       </c>
       <c r="N17">
-        <v>0.60051723764499998</v>
+        <v>0.65755019737200004</v>
       </c>
       <c r="O17">
-        <v>1803.54</v>
+        <v>1734.48</v>
       </c>
       <c r="P17">
-        <v>82.43</v>
+        <v>87.25</v>
       </c>
       <c r="Q17">
-        <v>7.6685000000000003E-2</v>
+        <v>7.3851E-2</v>
       </c>
       <c r="R17">
-        <v>0.46828999999999998</v>
+        <v>0.42111999999999999</v>
       </c>
       <c r="S17">
-        <v>1958.3</v>
+        <v>1966.6</v>
       </c>
       <c r="T17">
-        <v>22.324000000000002</v>
+        <v>22.675000000000001</v>
       </c>
       <c r="U17">
-        <v>8757.5</v>
+        <v>8888.5</v>
       </c>
       <c r="V17">
-        <v>4002.87</v>
+        <v>3936.97</v>
       </c>
       <c r="W17">
-        <v>32561.82</v>
+        <v>32028.9</v>
+      </c>
+      <c r="X17">
+        <v>27466.61</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18">
-        <v>27720.5</v>
+        <v>28114</v>
       </c>
       <c r="C18">
-        <v>27958.9</v>
+        <v>27719.8</v>
       </c>
       <c r="D18">
-        <v>28457.8</v>
+        <v>28437.8</v>
       </c>
       <c r="E18">
-        <v>27157</v>
+        <v>27350.6</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G18">
-        <v>1014355</v>
+        <v>990544</v>
       </c>
       <c r="H18">
         <v>43551722213590</v>
       </c>
       <c r="I18">
-        <v>2007787.3376623376</v>
+        <v>1963597.3793103448</v>
       </c>
       <c r="J18">
-        <v>615037445</v>
+        <v>579083051</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L18">
-        <v>333405048.14155591</v>
+        <v>313920337.45490515</v>
       </c>
       <c r="M18">
-        <v>874328</v>
+        <v>880525</v>
       </c>
       <c r="N18">
-        <v>0.605132458554</v>
+        <v>0.60051723764499998</v>
       </c>
       <c r="O18">
-        <v>1732.31</v>
+        <v>1803.54</v>
       </c>
       <c r="P18">
-        <v>78.02</v>
+        <v>82.43</v>
       </c>
       <c r="Q18">
-        <v>7.1345000000000006E-2</v>
+        <v>7.6685000000000003E-2</v>
       </c>
       <c r="R18">
-        <v>0.37318000000000001</v>
+        <v>0.46828999999999998</v>
       </c>
       <c r="S18">
-        <v>1999.7</v>
+        <v>1958.3</v>
       </c>
       <c r="T18">
-        <v>22.533000000000001</v>
+        <v>22.324000000000002</v>
       </c>
       <c r="U18">
-        <v>8697.5</v>
+        <v>8757.5</v>
       </c>
       <c r="V18">
-        <v>3951.57</v>
+        <v>4002.87</v>
       </c>
       <c r="W18">
-        <v>32244.639999999999</v>
-      </c>
-      <c r="X18">
-        <v>26945.67</v>
+        <v>32561.82</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>27958.7</v>
+        <v>27720.5</v>
       </c>
       <c r="C19">
-        <v>26914.5</v>
+        <v>27958.9</v>
       </c>
       <c r="D19">
-        <v>28347.3</v>
+        <v>28457.8</v>
       </c>
       <c r="E19">
-        <v>26844.6</v>
+        <v>27157</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G19">
-        <v>845573</v>
+        <v>1014355</v>
       </c>
       <c r="H19">
         <v>43551722213590</v>
       </c>
       <c r="I19">
-        <v>2315518.8175675673</v>
+        <v>2007787.3376623376</v>
       </c>
       <c r="J19">
-        <v>595101621</v>
+        <v>615037445</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L19">
-        <v>320415243.09549117</v>
+        <v>333405048.14155591</v>
       </c>
       <c r="M19">
-        <v>747881</v>
+        <v>874328</v>
       </c>
       <c r="N19">
-        <v>0.47952157455299999</v>
+        <v>0.605132458554</v>
       </c>
       <c r="O19">
-        <v>1779.47</v>
+        <v>1732.31</v>
       </c>
       <c r="P19">
-        <v>83.87</v>
+        <v>78.02</v>
       </c>
       <c r="Q19">
-        <v>7.4462E-2</v>
+        <v>7.1345000000000006E-2</v>
       </c>
       <c r="R19">
-        <v>0.38549</v>
+        <v>0.37318000000000001</v>
+      </c>
+      <c r="S19">
+        <v>1999.7</v>
+      </c>
+      <c r="T19">
+        <v>22.533000000000001</v>
+      </c>
+      <c r="U19">
+        <v>8697.5</v>
+      </c>
+      <c r="V19">
+        <v>3951.57</v>
+      </c>
+      <c r="W19">
+        <v>32244.639999999999</v>
+      </c>
+      <c r="X19">
+        <v>26945.67</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20">
+        <v>27958.7</v>
+      </c>
+      <c r="C20">
         <v>26914.5</v>
       </c>
-      <c r="C20">
-        <v>27391.9</v>
-      </c>
       <c r="D20">
-        <v>27659.1</v>
+        <v>28347.3</v>
       </c>
       <c r="E20">
-        <v>26688.7</v>
+        <v>26844.6</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G20">
-        <v>955447</v>
+        <v>845573</v>
       </c>
       <c r="H20">
         <v>43551722213590</v>
       </c>
       <c r="I20">
+        <v>2315518.8175675673</v>
+      </c>
+      <c r="J20">
+        <v>595101621</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20">
+        <v>320415243.09549117</v>
+      </c>
+      <c r="M20">
+        <v>747881</v>
+      </c>
+      <c r="N20">
+        <v>0.47952157455299999</v>
+      </c>
+      <c r="O20">
+        <v>1779.47</v>
+      </c>
+      <c r="P20">
+        <v>83.87</v>
+      </c>
+      <c r="Q20">
+        <v>7.4462E-2</v>
+      </c>
+      <c r="R20">
+        <v>0.38549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>26914.5</v>
+      </c>
+      <c r="C21">
+        <v>27391.9</v>
+      </c>
+      <c r="D21">
+        <v>27659.1</v>
+      </c>
+      <c r="E21">
+        <v>26688.7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21">
+        <v>955447</v>
+      </c>
+      <c r="H21">
+        <v>43551722213590</v>
+      </c>
+      <c r="I21">
         <v>2283903.9135802467</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>646983386</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>59</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>350724792.35971379</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>823196</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>0.47292620832299997</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <v>1758.7</v>
       </c>
-      <c r="P20">
+      <c r="P21">
         <v>83.01</v>
       </c>
-      <c r="Q20">
+      <c r="Q21">
         <v>7.2958999999999996E-2</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <v>0.37396000000000001</v>
       </c>
     </row>
